--- a/target/test-classes/Excel/TestData.xlsx
+++ b/target/test-classes/Excel/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soumyansh.LENOVOTHINKPAD\eclipse-workspace\Multithreading_SeleniumFramework\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B339B6-27BB-4EEE-A16F-E0FC35255895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5806DBA8-7A1E-468D-BF56-5B8CCC484F0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="one" sheetId="1" r:id="rId1"/>
@@ -26,33 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Hey</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Fname</t>
-  </si>
-  <si>
-    <t>Lname</t>
   </si>
   <si>
     <t>Soumyansh</t>
   </si>
   <si>
     <t>Gupta</t>
-  </si>
-  <si>
-    <t>Soumya</t>
-  </si>
-  <si>
-    <t>There</t>
-  </si>
-  <si>
-    <t>World</t>
   </si>
 </sst>
 </file>
@@ -370,36 +352,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -409,36 +380,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15873311-6518-4980-A0AD-D0273E74CF6E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
